--- a/model_fusion_results_batch.xlsx
+++ b/model_fusion_results_batch.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,88 +657,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9668694111012649</v>
+        <v>0.9654092483686457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4205909033432501</v>
+        <v>0.408181604281139</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8625035909231844</v>
+        <v>0.8506931528533577</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6407226093968846</v>
+        <v>0.6725044746870141</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4348045988457673</v>
+        <v>0.4299194180341823</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9430945738579943</v>
+        <v>0.938510672401237</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9337388222025296</v>
+        <v>0.9308184967372916</v>
       </c>
       <c r="I4" t="n">
-        <v>0.516275541490208</v>
+        <v>0.4719541146761396</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9190373411920952</v>
+        <v>0.9201858722486956</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9110196456871162</v>
+        <v>0.9074185881188364</v>
       </c>
       <c r="L4" t="n">
-        <v>0.939660033835495</v>
+        <v>0.9345847095786676</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9990725660513934</v>
+        <v>0.9995249728555917</v>
       </c>
       <c r="N4" t="n">
-        <v>0.457200587803086</v>
+        <v>0.4072373254959589</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9372904375875387</v>
+        <v>0.9319399333530181</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9671958830614256</v>
+        <v>0.9645499989085591</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9630830580842665</v>
+        <v>0.9631837589623782</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00326619488296135</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="S4" t="n">
         <v>0.9999581721217191</v>
       </c>
       <c r="T4" t="n">
-        <v>0.75</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="U4" t="n">
-        <v>0.006504065040650406</v>
+        <v>0.01189189189189189</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9729920244904535</v>
+        <v>0.9719044550068476</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6800248524386455</v>
+        <v>0.6272134203168686</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9933021773307776</v>
+        <v>0.9958004005771757</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8756</v>
+        <v>0.9119241192411924</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7655184472809932</v>
+        <v>0.7432357813362783</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9917425279948441</v>
+        <v>0.9919640699266897</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9995534264371549</v>
+        <v>0.9997767132185774</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -750,98 +750,292 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>mhca_h2_mhca_h2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9300430999758318</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4764448080555769</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8989807557602393</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3868749991491142</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4131896445022574</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8822306572847965</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8600861999516636</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7358368230892934</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8915093044999103</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.870352060536441</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8751309111415452</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8955618892508144</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.7092211609110948</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9615534074901637</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9273851631491415</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9422983968420204</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0522591181273816</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9764927324061486</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.07868852459016394</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.06280667320902845</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.9351687746717151</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.934762348555452</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.9351969504447268</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.6515102305943488</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.9675743172480464</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.02319587628865979</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.9750121792789866</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.007258064516129033</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.01105651105651106</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>opt3_mhca_h1_opt3_mhca_h1</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.9298618383952308</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6446386199946479</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9246625230737526</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5920246782430114</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5926864855586105</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8792817416290613</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8597236767904616</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8389264155045489</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9410367998611081</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.8967260559235596</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8681624103762184</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8738689829895042</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.8218221895664952</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.9755062875612343</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.9218947619615797</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.9695883348102795</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.985883091080205</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.5974955277280859</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.5702902675014229</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.9774430033029888</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.9195402298850575</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.9814571533176836</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.7746663177178749</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.8409090909090909</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.9042536050914364</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.2396907216494845</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.9094876583306268</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.02043057996485061</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.03765182186234818</v>
+      <c r="B6" t="n">
+        <v>0.9341315556271651</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6939992522394993</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9394466825677792</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5999742740298468</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6169350802866047</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8885067095097565</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8682631112543301</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8895236190167867</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9495175731848479</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9049798550187836</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8783936195923628</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8783704306912776</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8785819250551066</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9832624328978021</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9278614097968937</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9713203899138001</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.7528579205225912</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.979713479033776</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5877603059923502</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.6601431980906921</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.9776444050592121</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8664181422802113</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.9853552430383563</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.8039780916690689</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.8340311004784688</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.9091678079432852</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.2783505154639175</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.9141360831438778</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.02489626556016597</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.04570461278036395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>opt3_mhca_h2_opt3_mhca_h2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9253907194070732</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7503612800532413</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9421883971940181</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5824265070262213</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6114616912512093</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.872381245392527</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8507814388141465</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9179721499619259</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9481183759680297</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.892659109014472</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8608515266253122</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8546416938110749</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.9112784717119765</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9873774990199922</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9162271288785421</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.9700716990252155</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.7746325530756668</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.9775802572414515</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.5703406813627254</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.6569713758079408</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.9717836139531136</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.8850574712643678</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.9777959640772727</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.7342783505154639</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.8026482603183547</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.8988560380246515</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.4871134020618557</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.9020988957453718</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.03770949720670391</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +1049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,16 +1130,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44167</v>
+        <v>44187</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -960,13 +1154,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1544</v>
+        <v>1647</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -984,16 +1178,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1027</v>
+        <v>1194</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2189</v>
+        <v>2019</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1008,13 +1202,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1035,7 +1229,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>opt3_mhca_h1_opt3_mhca_h1</t>
+          <t>mhca_h2_mhca_h2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1105,16 +1299,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38632</v>
+        <v>39591</v>
       </c>
       <c r="D12" t="n">
-        <v>668</v>
+        <v>1053</v>
       </c>
       <c r="E12" t="n">
-        <v>651</v>
+        <v>2381</v>
       </c>
       <c r="F12" t="n">
-        <v>4257</v>
+        <v>1183</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1129,16 +1323,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>660</v>
+        <v>1144</v>
       </c>
       <c r="D13" t="n">
-        <v>1002</v>
+        <v>96</v>
       </c>
       <c r="E13" t="n">
-        <v>163</v>
+        <v>583</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1153,16 +1347,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>2960</v>
+        <v>3009</v>
       </c>
       <c r="F14" t="n">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1177,16 +1371,250 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" t="n">
-        <v>93</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>opt3_mhca_h1_opt3_mhca_h1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Predicted</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>38831</v>
+      </c>
+      <c r="D20" t="n">
+        <v>959</v>
+      </c>
+      <c r="E20" t="n">
+        <v>542</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>320</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1383</v>
+      </c>
+      <c r="E21" t="n">
+        <v>125</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>77</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F22" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>264</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>opt3_mhca_h2_opt3_mhca_h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Predicted</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>37782</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1059</v>
+      </c>
+      <c r="E28" t="n">
+        <v>879</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>256</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1423</v>
+      </c>
+      <c r="E29" t="n">
+        <v>128</v>
+      </c>
+      <c r="F29" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>54</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2849</v>
+      </c>
+      <c r="F30" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>173</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>24</v>
+      </c>
+      <c r="F31" t="n">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/model_fusion_results_batch.xlsx
+++ b/model_fusion_results_batch.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,389 +653,195 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mhca_h1_mhca_h1</t>
+          <t>fusion_concat_proj_fusion_concat_proj</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9654092483686457</v>
+        <v>0.9426407798276</v>
       </c>
       <c r="C4" t="n">
-        <v>0.408181604281139</v>
+        <v>0.4625995995977633</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8506931528533577</v>
+        <v>0.8869273694794094</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6725044746870141</v>
+        <v>0.4242346496911414</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4299194180341823</v>
+        <v>0.4195197923574588</v>
       </c>
       <c r="G4" t="n">
-        <v>0.938510672401237</v>
+        <v>0.9036665756786545</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9308184967372916</v>
+        <v>0.8852815596552002</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4719541146761396</v>
+        <v>0.6624279182624375</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9201858722486956</v>
+        <v>0.890285716220876</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9074185881188364</v>
+        <v>0.883457293547134</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9345847095786676</v>
+        <v>0.8979295899460243</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9995249728555917</v>
+        <v>0.9315508505247919</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4072373254959589</v>
+        <v>0.6249081557678178</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9319399333530181</v>
+        <v>0.952757727188599</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9645499989085591</v>
+        <v>0.9420349528776649</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9631837589623782</v>
+        <v>0.9590348827841779</v>
       </c>
       <c r="R4" t="n">
-        <v>0.005988023952095809</v>
+        <v>0.0326619488296135</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9999581721217191</v>
+        <v>0.9946251176409077</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.1892744479495268</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01189189189189189</v>
+        <v>0.05571030640668524</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9719044550068476</v>
+        <v>0.9427616208813341</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6272134203168686</v>
+        <v>0.8372165268716993</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9958004005771757</v>
+        <v>0.9500786078866323</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9119241192411924</v>
+        <v>0.5376022341911031</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7432357813362783</v>
+        <v>0.6547619047619048</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9919640699266897</v>
+        <v>0.9708370256988641</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.04896907216494845</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9997767132185774</v>
+        <v>0.9780975966222799</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.01730418943533698</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.02557200538358008</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mhca_h2_mhca_h2</t>
+          <t>opt3_concat_proj_opt3_concat_proj</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9300430999758318</v>
+        <v>0.8294026423910417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4764448080555769</v>
+        <v>0.6148195032119268</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8989807557602393</v>
+        <v>0.8939889960241163</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3868749991491142</v>
+        <v>0.503675616096555</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4131896445022574</v>
+        <v>0.3906868709379004</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8822306572847965</v>
+        <v>0.717012457376019</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8600861999516636</v>
+        <v>0.6588052847820833</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7358368230892934</v>
+        <v>0.9171506993143823</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8915093044999103</v>
+        <v>0.9269231403368172</v>
       </c>
       <c r="K5" t="n">
-        <v>0.870352060536441</v>
+        <v>0.7503463961222091</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8751309111415452</v>
+        <v>0.6913115282365262</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8955618892508144</v>
+        <v>0.6638165038002172</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7092211609110948</v>
+        <v>0.9145848640705364</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9615534074901637</v>
+        <v>0.9844017309046996</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9273851631491415</v>
+        <v>0.7929315446034126</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9422983968420204</v>
+        <v>0.9633046000161122</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0522591181273816</v>
+        <v>0.05770277626565052</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9764927324061486</v>
+        <v>0.9980968315382203</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07868852459016394</v>
+        <v>0.5380710659898477</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06280667320902845</v>
+        <v>0.104228121927237</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9351687746717151</v>
+        <v>0.9271529847740272</v>
       </c>
       <c r="W5" t="n">
-        <v>0.934762348555452</v>
+        <v>0.9130164647406027</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9351969504447268</v>
+        <v>0.9281330088514634</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5</v>
+        <v>0.4682919056724028</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6515102305943488</v>
+        <v>0.6190626645602949</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.9675743172480464</v>
+        <v>0.735841456537501</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02319587628865979</v>
+        <v>0.8247422680412371</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.9750121792789866</v>
+        <v>0.7351412796362455</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.007258064516129033</v>
+        <v>0.0239377618192699</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01105651105651106</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>opt3_mhca_h1_opt3_mhca_h1</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9341315556271651</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6939992522394993</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9394466825677792</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5999742740298468</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6169350802866047</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8885067095097565</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8682631112543301</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8895236190167867</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9495175731848479</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.9049798550187836</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8783936195923628</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8783704306912776</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.8785819250551066</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.9832624328978021</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.9278614097968937</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.9713203899138001</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.7528579205225912</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.979713479033776</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5877603059923502</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.6601431980906921</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.9776444050592121</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.8664181422802113</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.9853552430383563</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.8039780916690689</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.8340311004784688</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.9091678079432852</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.2783505154639175</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.9141360831438778</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.02489626556016597</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.04570461278036395</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>opt3_mhca_h2_opt3_mhca_h2</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9253907194070732</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7503612800532413</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9421883971940181</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5824265070262213</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.6114616912512093</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.872381245392527</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8507814388141465</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9179721499619259</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9481183759680297</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.892659109014472</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8608515266253122</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.8546416938110749</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.9112784717119765</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.9873774990199922</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.9162271288785421</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.9700716990252155</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.7746325530756668</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.9775802572414515</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.5703406813627254</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.6569713758079408</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.9717836139531136</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.8850574712643678</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.9777959640772727</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.7342783505154639</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.8026482603183547</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.8988560380246515</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.4871134020618557</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.9020988957453718</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.03770949720670391</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04652515266065717</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,7 +866,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>mhca_h1_mhca_h1</t>
+          <t>fusion_concat_proj_fusion_concat_proj</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -1130,16 +936,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44187</v>
+        <v>41182</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>1897</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>887</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1154,16 +960,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1647</v>
+        <v>1316</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>179</v>
+        <v>414</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1178,16 +984,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1194</v>
+        <v>364</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>2019</v>
+        <v>2695</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1202,16 +1008,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1229,7 +1035,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mhca_h2_mhca_h2</t>
+          <t>opt3_concat_proj_opt3_concat_proj</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1299,16 +1105,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39591</v>
+        <v>29346</v>
       </c>
       <c r="D12" t="n">
-        <v>1053</v>
+        <v>88</v>
       </c>
       <c r="E12" t="n">
-        <v>2381</v>
+        <v>2051</v>
       </c>
       <c r="F12" t="n">
-        <v>1183</v>
+        <v>12723</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1323,16 +1129,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1144</v>
+        <v>402</v>
       </c>
       <c r="D13" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E13" t="n">
-        <v>583</v>
+        <v>1267</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1347,16 +1153,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>3009</v>
+        <v>2939</v>
       </c>
       <c r="F14" t="n">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1371,250 +1177,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>opt3_mhca_h1_opt3_mhca_h1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Predicted</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>38831</v>
-      </c>
-      <c r="D20" t="n">
-        <v>959</v>
-      </c>
-      <c r="E20" t="n">
-        <v>542</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3876</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
         <v>320</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1383</v>
-      </c>
-      <c r="E21" t="n">
-        <v>125</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>77</v>
-      </c>
-      <c r="D22" t="n">
-        <v>8</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2789</v>
-      </c>
-      <c r="F22" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>264</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" t="n">
-        <v>13</v>
-      </c>
-      <c r="F23" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>opt3_mhca_h2_opt3_mhca_h2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Predicted</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>37782</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1059</v>
-      </c>
-      <c r="E28" t="n">
-        <v>879</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>256</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1423</v>
-      </c>
-      <c r="E29" t="n">
-        <v>128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>54</v>
-      </c>
-      <c r="D30" t="n">
-        <v>11</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2849</v>
-      </c>
-      <c r="F30" t="n">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>173</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>24</v>
-      </c>
-      <c r="F31" t="n">
-        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/model_fusion_results_batch.xlsx
+++ b/model_fusion_results_batch.xlsx
@@ -653,195 +653,195 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fusion_concat_proj_fusion_concat_proj</t>
+          <t>mhca_h1_mhca_h1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9426407798276</v>
+        <v>0.8974764359945219</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4625995995977633</v>
+        <v>0.4812656081863427</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8869273694794094</v>
+        <v>0.9208521507283209</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4242346496911414</v>
+        <v>0.3516038094475696</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4195197923574588</v>
+        <v>0.3761436536864616</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9036665756786545</v>
+        <v>0.8320604511403233</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8852815596552002</v>
+        <v>0.7949528719890437</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6624279182624375</v>
+        <v>0.8884557309242396</v>
       </c>
       <c r="J4" t="n">
-        <v>0.890285716220876</v>
+        <v>0.9011528794499601</v>
       </c>
       <c r="K4" t="n">
-        <v>0.883457293547134</v>
+        <v>0.8317209248137459</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8979295899460243</v>
+        <v>0.82437766857327</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9315508505247919</v>
+        <v>0.8166847629388346</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6249081557678178</v>
+        <v>0.8868479059515062</v>
       </c>
       <c r="O4" t="n">
-        <v>0.952757727188599</v>
+        <v>0.9832244008714597</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9420349528776649</v>
+        <v>0.8922499011466983</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9590348827841779</v>
+        <v>0.8859059050994925</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0326619488296135</v>
+        <v>0.1453456722917801</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9946251176409077</v>
+        <v>0.9143574192199101</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1892744479495268</v>
+        <v>0.06121045392022009</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05571030640668524</v>
+        <v>0.08614292627843201</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9427616208813341</v>
+        <v>0.8875573995005236</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8372165268716993</v>
+        <v>0.9630319975147561</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9500786078866323</v>
+        <v>0.8823250705317339</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5376022341911031</v>
+        <v>0.3619803829985988</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6547619047619048</v>
+        <v>0.5261817873207163</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9708370256988641</v>
+        <v>0.9920647708048014</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04896907216494845</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9780975966222799</v>
+        <v>0.9998782072101332</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01730418943533698</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02557200538358008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>opt3_concat_proj_opt3_concat_proj</t>
+          <t>opt3_mhca_h1_opt3_mhca_h1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8294026423910417</v>
+        <v>0.9745528881011842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6148195032119268</v>
+        <v>0.6957809460248041</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8939889960241163</v>
+        <v>0.9534058585849956</v>
       </c>
       <c r="E5" t="n">
-        <v>0.503675616096555</v>
+        <v>0.6554440560836585</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3906868709379004</v>
+        <v>0.673585937847299</v>
       </c>
       <c r="G5" t="n">
-        <v>0.717012457376019</v>
+        <v>0.9570583763598854</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6588052847820833</v>
+        <v>0.9491057762023685</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9171506993143823</v>
+        <v>0.8645176581376136</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9269231403368172</v>
+        <v>0.954507213802138</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7503463961222091</v>
+        <v>0.9515726864256498</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6913115282365262</v>
+        <v>0.9541005397567067</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6638165038002172</v>
+        <v>0.9669969236337315</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9145848640705364</v>
+        <v>0.8493754592211609</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9844017309046996</v>
+        <v>0.9811792788450504</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7929315446034126</v>
+        <v>0.9740364788042426</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9633046000161122</v>
+        <v>0.9805848707000725</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05770277626565052</v>
+        <v>0.7681001633097442</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9980968315382203</v>
+        <v>0.9887483007424448</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5380710659898477</v>
+        <v>0.72396100564392</v>
       </c>
       <c r="U5" t="n">
-        <v>0.104228121927237</v>
+        <v>0.745377707342842</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9271529847740272</v>
+        <v>0.9812092161443647</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9130164647406027</v>
+        <v>0.9036968002485244</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9281330088514634</v>
+        <v>0.9865828182542589</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4682919056724028</v>
+        <v>0.8236126840317101</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6190626645602949</v>
+        <v>0.8617982521107984</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.735841456537501</v>
+        <v>0.982316925803593</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8247422680412371</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7351412796362455</v>
+        <v>0.9889168561221175</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0239377618192699</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.04652515266065717</v>
+        <v>0.1131313131313131</v>
       </c>
     </row>
   </sheetData>
@@ -866,7 +866,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>fusion_concat_proj_fusion_concat_proj</t>
+          <t>mhca_h1_mhca_h1</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -936,16 +936,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41182</v>
+        <v>36104</v>
       </c>
       <c r="D4" t="n">
-        <v>242</v>
+        <v>3910</v>
       </c>
       <c r="E4" t="n">
-        <v>1897</v>
+        <v>4188</v>
       </c>
       <c r="F4" t="n">
-        <v>887</v>
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -960,16 +960,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1316</v>
+        <v>345</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>267</v>
       </c>
       <c r="E5" t="n">
-        <v>414</v>
+        <v>1225</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -984,16 +984,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>364</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>2695</v>
+        <v>3100</v>
       </c>
       <c r="F6" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>362</v>
+        <v>208</v>
       </c>
       <c r="D7" t="n">
+        <v>129</v>
+      </c>
+      <c r="E7" t="n">
+        <v>51</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>19</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>opt3_concat_proj_opt3_concat_proj</t>
+          <t>opt3_mhca_h1_opt3_mhca_h1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1105,16 +1105,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29346</v>
+        <v>42749</v>
       </c>
       <c r="D12" t="n">
-        <v>88</v>
+        <v>514</v>
       </c>
       <c r="E12" t="n">
-        <v>2051</v>
+        <v>461</v>
       </c>
       <c r="F12" t="n">
-        <v>12723</v>
+        <v>484</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1129,16 +1129,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>402</v>
+        <v>276</v>
       </c>
       <c r="D13" t="n">
-        <v>106</v>
+        <v>1411</v>
       </c>
       <c r="E13" t="n">
-        <v>1267</v>
+        <v>145</v>
       </c>
       <c r="F13" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1153,16 +1153,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>2939</v>
+        <v>2909</v>
       </c>
       <c r="F14" t="n">
-        <v>263</v>
+        <v>57</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1177,16 +1177,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49</v>
+        <v>315</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>320</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
